--- a/TestCases/Belasea.xlsx
+++ b/TestCases/Belasea.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Project Introduction" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="204">
   <si>
     <t>Project Name</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Prority</t>
   </si>
   <si>
     <t>Comments</t>
@@ -271,9 +268,6 @@
 stating, "Passwords don't match".</t>
   </si>
   <si>
-    <t>Bug Details</t>
-  </si>
-  <si>
     <t>TC_004</t>
   </si>
   <si>
@@ -796,6 +790,48 @@
   </si>
   <si>
     <t>Number Of Failed Test Cases</t>
+  </si>
+  <si>
+    <t>Details are updated in the database</t>
+  </si>
+  <si>
+    <t>Database ignored the spaces</t>
+  </si>
+  <si>
+    <t>Version 1.1</t>
+  </si>
+  <si>
+    <t>Updated Some Details of Register Functionaloty Test Cases</t>
+  </si>
+  <si>
+    <t>Bug Screenshots</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>RegisterBug_001</t>
+  </si>
+  <si>
+    <t>RegisterBug_002</t>
+  </si>
+  <si>
+    <t>RegisterBug_003</t>
+  </si>
+  <si>
+    <t>RegisterBug_004</t>
+  </si>
+  <si>
+    <t>RegisterBug_005</t>
+  </si>
+  <si>
+    <t>RegisterBug_006</t>
+  </si>
+  <si>
+    <t>Version 1.2</t>
+  </si>
+  <si>
+    <t>Bug ID Generated</t>
   </si>
 </sst>
 </file>
@@ -834,7 +870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +880,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -886,6 +934,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,17 +1225,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:G13"/>
+  <dimension ref="E6:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:7" x14ac:dyDescent="0.25">
@@ -1186,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">
@@ -1202,7 +1259,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.25">
@@ -1243,6 +1300,22 @@
       </c>
       <c r="G13" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1332,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,15 +1359,15 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1306,10 +1379,10 @@
         <v>29</v>
       </c>
       <c r="E2" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1324,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="I1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,14 +1413,14 @@
     <col min="8" max="8" width="41.7109375" customWidth="1"/>
     <col min="9" max="9" width="40.140625" customWidth="1"/>
     <col min="10" max="10" width="41.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1358,19 +1431,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>
@@ -1382,979 +1455,1005 @@
         <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>59</v>
+      <c r="K5" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>59</v>
+      <c r="K6" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="5" customFormat="1" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>60</v>
+      <c r="K9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>60</v>
+      <c r="K10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>59</v>
+      <c r="K11" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="5" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>60</v>
+      <c r="K12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>86</v>
+        <v>190</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>60</v>
+      <c r="K14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="5" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>59</v>
+      <c r="K15" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="5" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>60</v>
+      <c r="K16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>59</v>
+        <v>125</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>59</v>
+      <c r="K18" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>59</v>
+      <c r="K19" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>59</v>
+      <c r="K20" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>59</v>
+      <c r="K21" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>59</v>
+      <c r="K22" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>59</v>
+      <c r="K23" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>59</v>
+      <c r="K24" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>59</v>
+      <c r="K25" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>59</v>
+      <c r="K27" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>59</v>
+      <c r="K28" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="I29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="J29" s="5" t="s">
-        <v>86</v>
+        <v>191</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
